--- a/medicine/Pharmacie/Innovation_Pharmaceutique_et_Recherche/Innovation_Pharmaceutique_et_Recherche.xlsx
+++ b/medicine/Pharmacie/Innovation_Pharmaceutique_et_Recherche/Innovation_Pharmaceutique_et_Recherche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La filière innovation pharmaceutique et recherche ou IPR (appelée pharmacie spécialisée jusqu'en 2008) est une filière de l'internat en pharmacie permettant aux étudiants de pharmacie de se spécialiser en recherche. Tout comme les autres filières de l'internat en pharmacie, IPR dure 8 semestres, soit 4 ans, et n'est accessible qu'après réussite au concours national de l'internat en pharmacie qui a lieu une fois par an en décembre. Les modalités de la filière sont définies par arrêté ministériel[1] ainsi que les modalités du concours et la répartition des postes ouverts selon les interrégions[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La filière innovation pharmaceutique et recherche ou IPR (appelée pharmacie spécialisée jusqu'en 2008) est une filière de l'internat en pharmacie permettant aux étudiants de pharmacie de se spécialiser en recherche. Tout comme les autres filières de l'internat en pharmacie, IPR dure 8 semestres, soit 4 ans, et n'est accessible qu'après réussite au concours national de l'internat en pharmacie qui a lieu une fois par an en décembre. Les modalités de la filière sont définies par arrêté ministériel ainsi que les modalités du concours et la répartition des postes ouverts selon les interrégions. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Thématiques de recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les internes sont libres de choisir la thématique de recherche tant que le laboratoire de recherche est agréé par la haute autorité de santé ou HAS[1]. Cependant, l'arrêté ministériel[1] précise que cette filière vient en complémentarité des filières de Pharmacie (hospitalière et industrielle) et de biologie médicale et précise les domaines de spécialisation préférentiels suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les internes sont libres de choisir la thématique de recherche tant que le laboratoire de recherche est agréé par la haute autorité de santé ou HAS. Cependant, l'arrêté ministériel précise que cette filière vient en complémentarité des filières de Pharmacie (hospitalière et industrielle) et de biologie médicale et précise les domaines de spécialisation préférentiels suivants :
 santé publique,
 la pharmacoépidémiologie,
 la thérapie génique ou cellulaire,
@@ -549,7 +563,9 @@
           <t>Formations supplémentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La filière IPR ouvre la possibilité de conduire des travaux de recherche dans le cadre d'une thèse de doctorat de recherche (Ph.D. en anglais), à ne pas confondre avec la thèse d'exercice de docteur en pharmacie. 
 Dans de nombreuses régions, bien que la 5ème année d'études de pharmacie donne un équivalent Master, les internes sont obligés de valider une année de master 2 avant de pouvoir s'inscrire en thèse à l'université. L'année de master 1 doit avoir préalablement été obtenue par équivalence à la suite du suivi de cours additionnels au cursus classique donnant des ECTS complémentaires (après réussite aux examens). Dans certains cas, le stage obligatoire en pharmacie d'officine de fin de 2ème année des études de pharmacie donne également des ECTS complémentaires pour l'obtention de l'équivalence master 1.
@@ -581,7 +597,9 @@
           <t>Diplômes obtenus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>A l'issue des 4 ans de la filière IPR, l'interne est souvent détenteur.rice de quatre diplômes :
 le diplôme de Master 2 obtenu à l'issue de la soutenance du mémoire de master (projet de recherche souvent mené lors de la 1ère année d'internat),
@@ -615,7 +633,9 @@
           <t>Missions hospitalières</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certaines régions, les internes de la filière IPR ont la possibilité de faire des gardes de nuit et de week-end dans certains services hospitaliers (contre rémunération additionnelle). Depuis 2020, les services de biologie médicale doivent s’assurer que seuls des internes de la filière biologie médicale soient autorisés à faire des gardes dans leur service.
 Lors de la pandémie de COVID-19 en 2020, les internes de la filière IPR ont cependant été réquisitionnés dans de nombreuses régions pour mener à bien les missions et analyses liées aux tests virologiques qPCR notamment.
